--- a/Statistics/Projects/Sales_Data_200_Rows_Project.xlsx
+++ b/Statistics/Projects/Sales_Data_200_Rows_Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPS\Desktop\Tops Tech\Statistics\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E36CC9-9E29-4125-9CDA-2E9C55820ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54844E1F-EEFF-4D7D-AA5C-4E6DC1167A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="50">
   <si>
     <t>Month</t>
   </si>
@@ -108,12 +130,6 @@
     <t>STD</t>
   </si>
   <si>
-    <t>South AVG</t>
-  </si>
-  <si>
-    <t>North AVG</t>
-  </si>
-  <si>
     <t>CORELATION</t>
   </si>
   <si>
@@ -135,9 +151,6 @@
     <t>CV</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Margin of error</t>
   </si>
   <si>
@@ -145,6 +158,86 @@
   </si>
   <si>
     <t>lower</t>
+  </si>
+  <si>
+    <t>North sales</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <r>
+      <t>p-value &gt; 0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Fail to reject the null hypothesis (H₀).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no significant difference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in sales between North and South regions.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -192,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,17 +317,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -246,6 +356,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,6 +425,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DEC3E17-3627-4BC8-AC2C-901DE5F29E88}" name="Table2" displayName="Table2" ref="A1:E201" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E201" xr:uid="{7DEC3E17-3627-4BC8-AC2C-901DE5F29E88}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EC3E475B-174D-4C0D-9D19-5C4D6D30F246}" name="Month"/>
     <tableColumn id="2" xr3:uid="{4E0C69BE-9022-4C53-8259-D9DC39F36473}" name="Region"/>
@@ -607,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="113" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="113" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,27 +741,27 @@
     <col min="11" max="11" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -661,11 +778,11 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>4004-J32/J33</f>
+        <f>4004-J44/J45</f>
         <v>3993.3777210297967</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -682,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -699,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -716,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -736,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -753,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -773,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -793,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -813,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -833,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -850,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -867,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -884,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -901,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -917,8 +1034,14 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -934,8 +1057,16 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P17" cm="1">
+        <f t="array" ref="P17:P58">_xlfn._xlws.FILTER(Sheet1!D:D, Sheet1!B:B="North")</f>
+        <v>4786</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17:Q69">_xlfn._xlws.FILTER(Sheet1!D:D, Sheet1!B:B="South")</f>
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -961,8 +1092,14 @@
         <f>VAR(D2:D201)</f>
         <v>195641.86610552762</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>5182</v>
+      </c>
+      <c r="Q18">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -985,8 +1122,14 @@
         <f>STDEV(D2:D201)</f>
         <v>442.31421648589094</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>4599</v>
+      </c>
+      <c r="Q19">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1145,14 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>5147</v>
+      </c>
+      <c r="Q20">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1023,14 +1172,16 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <f>AVERAGEIF(B2:B201,"South",D2:D201)</f>
-        <v>4678.2075471698117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>4040</v>
+      </c>
+      <c r="Q21">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1046,15 +1197,14 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22">
-        <f>AVERAGEIF(B2:B201,"North",D2:D201)</f>
-        <v>4692.3809523809523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>4267</v>
+      </c>
+      <c r="Q22">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1070,15 +1220,21 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23">
-        <f>J22-J21</f>
-        <v>14.173405211140562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23">
+        <v>4107</v>
+      </c>
+      <c r="Q23">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1094,8 +1250,23 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4692.3809523809496</v>
+      </c>
+      <c r="K24" s="6">
+        <v>4678.2075471698117</v>
+      </c>
+      <c r="P24">
+        <v>4903</v>
+      </c>
+      <c r="Q24">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1111,8 +1282,23 @@
       <c r="E25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="6">
+        <v>225533.90011614401</v>
+      </c>
+      <c r="K25" s="6">
+        <v>190770.12917271402</v>
+      </c>
+      <c r="P25">
+        <v>4362</v>
+      </c>
+      <c r="Q25">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1128,428 +1314,600 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="6">
+        <v>42</v>
+      </c>
+      <c r="K26" s="6">
+        <v>53</v>
+      </c>
+      <c r="P26">
+        <v>4058</v>
+      </c>
+      <c r="Q26">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>4040</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26">
+      <c r="I27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="P27">
+        <v>4795</v>
+      </c>
+      <c r="Q27">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>4808</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="6">
+        <v>84</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="P28">
+        <v>4662</v>
+      </c>
+      <c r="Q28">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>4267</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.14965634773783071</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="P29">
+        <v>4731</v>
+      </c>
+      <c r="Q29">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>5275</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.44069724726352899</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="P30">
+        <v>4769</v>
+      </c>
+      <c r="Q30">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>5072</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.6631966790489103</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="P31">
+        <v>5239</v>
+      </c>
+      <c r="Q31">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>5065</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.88139449452705798</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="P32">
+        <v>5296</v>
+      </c>
+      <c r="Q32">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>5061</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1.9886096669757098</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="P33">
+        <v>5102</v>
+      </c>
+      <c r="Q33">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>4538</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="b">
+        <f>J32 &gt; 0.05</f>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>5024</v>
+      </c>
+      <c r="Q34">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4610</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35">
+        <v>4142</v>
+      </c>
+      <c r="Q35">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>4319</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <v>5229</v>
+      </c>
+      <c r="Q36">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>5263</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>4357</v>
+      </c>
+      <c r="Q37">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>4962</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38">
         <f>AVERAGE(Table2[Sales ($)])</f>
         <v>4698.3850000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>4040</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="P38">
+        <v>4306</v>
+      </c>
+      <c r="Q38">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>5473</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="3">
         <f>_xlfn.STDEV.P(Table2[Sales ($)])</f>
         <v>441.20704524633328</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>4808</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="6">
-        <f>(J27 / J26) * 100</f>
+      <c r="P39">
+        <v>4770</v>
+      </c>
+      <c r="Q39">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>4708</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="5">
+        <f>(J39 / J38) * 100</f>
         <v>9.3906107150932332</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>4267</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="P40">
+        <v>4582</v>
+      </c>
+      <c r="Q40">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>5275</v>
-      </c>
-      <c r="E30">
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>5006</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>4020</v>
+      </c>
+      <c r="Q41">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>4056</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30">
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42">
         <f>CORREL(Table2[Sales ($)], Table2[Customer Complaints])</f>
         <v>4.6024028266518399E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="P42">
+        <v>5431</v>
+      </c>
+      <c r="Q42">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>5022</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>4753</v>
+      </c>
+      <c r="Q43">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D31">
-        <v>5072</v>
-      </c>
-      <c r="E31">
+      <c r="D44">
+        <v>4107</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>5065</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32">
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44">
         <f>AVERAGE(D2:D201)</f>
         <v>4698.3850000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>5061</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="P44">
+        <v>5360</v>
+      </c>
+      <c r="Q44">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>4845</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
         <v>24</v>
       </c>
-      <c r="J33">
+      <c r="J45">
         <f>STDEV(D2:D201)</f>
         <v>442.31421648589094</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>4538</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34">
+      <c r="P45">
+        <v>5240</v>
+      </c>
+      <c r="Q45">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>5106</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46">
         <f>COUNT(D2:D201)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>4610</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>4319</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36">
-        <f>1.96 * (J33 / SQRT(J34))</f>
-        <v>61.301622850908061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>5263</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="I37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37">
-        <f>J32+J36</f>
-        <v>4759.686622850908</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>4962</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38">
-        <f>J32-J36</f>
-        <v>4637.0833771490925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39">
-        <v>5473</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40">
-        <v>4708</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>5006</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>4056</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>5022</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44">
-        <v>4107</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>4845</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>5106</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>4135</v>
+      </c>
+      <c r="Q46">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1565,8 +1923,14 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>5279</v>
+      </c>
+      <c r="Q47">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1582,8 +1946,21 @@
       <c r="E48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <f>1.96 * (J45 / SQRT(J46))</f>
+        <v>61.301622850908061</v>
+      </c>
+      <c r="P48">
+        <v>5428</v>
+      </c>
+      <c r="Q48">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1599,8 +1976,21 @@
       <c r="E49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49">
+        <f>J44+J48</f>
+        <v>4759.686622850908</v>
+      </c>
+      <c r="P49">
+        <v>4261</v>
+      </c>
+      <c r="Q49">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1616,8 +2006,21 @@
       <c r="E50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50">
+        <f>J44-J48</f>
+        <v>4637.0833771490925</v>
+      </c>
+      <c r="P50">
+        <v>4414</v>
+      </c>
+      <c r="Q50">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1633,8 +2036,14 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>4009</v>
+      </c>
+      <c r="Q51">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1650,8 +2059,14 @@
       <c r="E52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>5085</v>
+      </c>
+      <c r="Q52">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1667,8 +2082,14 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>4021</v>
+      </c>
+      <c r="Q53">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1684,8 +2105,14 @@
       <c r="E54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>4984</v>
+      </c>
+      <c r="Q54">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1701,8 +2128,14 @@
       <c r="E55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>4180</v>
+      </c>
+      <c r="Q55">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1718,8 +2151,14 @@
       <c r="E56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>4194</v>
+      </c>
+      <c r="Q56">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +2174,14 @@
       <c r="E57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>5402</v>
+      </c>
+      <c r="Q57">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1752,8 +2197,14 @@
       <c r="E58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>4429</v>
+      </c>
+      <c r="Q58">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1769,8 +2220,11 @@
       <c r="E59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q59">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1786,8 +2240,11 @@
       <c r="E60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1803,8 +2260,11 @@
       <c r="E61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1820,8 +2280,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +2300,11 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1854,8 +2320,11 @@
       <c r="E64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1871,8 +2340,11 @@
       <c r="E65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1888,8 +2360,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q66">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1905,8 +2380,11 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1922,8 +2400,11 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q68">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1939,8 +2420,11 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q69">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2042,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
